--- a/experiment_results/ChatGPT 5 Codex High.xlsx
+++ b/experiment_results/ChatGPT 5 Codex High.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyitian/Documents/🧐COSC385/for github/Verlan-Identification-Normalisation/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA25D5AE-09EC-5D45-BBA4-BC0D7C7EF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE448B-B76C-2F49-A96D-564A69A113F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{4C91957F-C551-6F4B-8A00-1F5ED182DB89}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14260" xr2:uid="{4C91957F-C551-6F4B-8A00-1F5ED182DB89}"/>
   </bookViews>
   <sheets>
     <sheet name="slang_test_set" sheetId="2" r:id="rId1"/>
     <sheet name="verlan_test_set_invented" sheetId="3" r:id="rId2"/>
     <sheet name="verlan_test_set" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">slang_test_set!$A$1:$G$51</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">slang_test_set!$A$1:$E$51</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">verlan_test_set!$A$1:$E$59</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">verlan_test_set_invented!$A$1:$E$51</definedName>
   </definedNames>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="167">
   <si>
     <t>pair_id</t>
   </si>
@@ -558,13 +557,7 @@
     <t>On est restés tranquilles tout le week-end.</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
+    <t>Output from GPT</t>
   </si>
 </sst>
 </file>
@@ -605,15 +598,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <font>
         <sz val="13"/>
@@ -624,12 +616,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="13"/>
-        <color rgb="FF005661"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -648,15 +637,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <font>
+        <sz val="13"/>
+        <color rgb="FF005661"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -681,15 +667,17 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{21EA7267-3C2B-E947-92A0-B91589209BB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+    <queryTableFields count="5">
       <queryTableField id="1" name="pair_id" tableColumnId="1"/>
       <queryTableField id="2" name="variant" tableColumnId="2"/>
       <queryTableField id="3" name="text" tableColumnId="3"/>
       <queryTableField id="4" name="verlan_label" tableColumnId="4"/>
       <queryTableField id="5" name="register_label" tableColumnId="5"/>
-      <queryTableField id="6" name="source" tableColumnId="6"/>
-      <queryTableField id="7" name="note" tableColumnId="7"/>
     </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="source"/>
+      <deletedField name="note"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -723,16 +711,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7DD8C3F-C2F2-6A4E-9F9D-D87FCAA7F5AD}" name="slang_test_set" displayName="slang_test_set" ref="A1:G51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G51" xr:uid="{E7DD8C3F-C2F2-6A4E-9F9D-D87FCAA7F5AD}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7DD8C3F-C2F2-6A4E-9F9D-D87FCAA7F5AD}" name="slang_test_set" displayName="slang_test_set" ref="A1:E51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E51" xr:uid="{E7DD8C3F-C2F2-6A4E-9F9D-D87FCAA7F5AD}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1E2FAB5-0449-0D40-B79E-B2BB57A0A69A}" uniqueName="1" name="pair_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3FEC5D50-AF37-3C41-A119-E927F37625AB}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B057105A-0D1A-834B-81BD-BC53FDC8D4DD}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3FEC5D50-AF37-3C41-A119-E927F37625AB}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B057105A-0D1A-834B-81BD-BC53FDC8D4DD}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{0EFA2868-B354-2B48-9C30-E20E6900D14F}" uniqueName="4" name="verlan_label" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{DE47177A-AA9B-4A41-B4DA-5FD4592AE521}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A4AE16A4-E99B-3C45-AE6C-5C041846928F}" uniqueName="6" name="Column2" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{A476DD79-7CA9-8F46-AB4C-3499BB4EBDF1}" uniqueName="7" name="Column3" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DE47177A-AA9B-4A41-B4DA-5FD4592AE521}" uniqueName="5" name="Output from GPT" queryTableFieldId="5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,10 +729,10 @@
   <autoFilter ref="A1:E51" xr:uid="{3370A941-A405-2A4A-97A6-04316338C49A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F309F356-AA2C-0341-A4C0-2DE83419651A}" uniqueName="1" name="pair_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1A0342ED-0704-234E-B3DD-7401D9692B97}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7F37A9C6-915D-9249-8BAE-62F4760200E3}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1A0342ED-0704-234E-B3DD-7401D9692B97}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7F37A9C6-915D-9249-8BAE-62F4760200E3}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{01C42913-B72B-FB4A-91F1-1D276DE5E4CF}" uniqueName="4" name="label" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{9D23737B-6CDF-7345-8769-1011633E1082}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9D23737B-6CDF-7345-8769-1011633E1082}" uniqueName="5" name="Output from GPT" queryTableFieldId="5" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -757,10 +743,10 @@
   <autoFilter ref="A1:E59" xr:uid="{3D9BAF42-66D4-6F4D-8DBF-D5AD66C438CE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{491A03DD-15BD-F54C-963A-5EC16EB88406}" uniqueName="1" name="pair_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{42359A64-A835-874B-BF6F-8F1A219ECDDC}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F8A71994-29C9-3240-811A-3CC3221DE936}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{42359A64-A835-874B-BF6F-8F1A219ECDDC}" uniqueName="2" name="variant" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F8A71994-29C9-3240-811A-3CC3221DE936}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{3615C682-6ADD-F743-A5E1-880909CAEEEC}" uniqueName="4" name="label" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0E781753-7588-0641-967E-FDBD1A4CF296}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0E781753-7588-0641-967E-FDBD1A4CF296}" uniqueName="5" name="Output from GPT" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD798D0-0B7E-4149-B50A-41E0052CFC23}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1095,12 +1081,10 @@
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,962 +1100,856 @@
       <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>46</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>48</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>49</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>23</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>50</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
         <v>51</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>54</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F99177-5FF7-7149-8FD8-349CA89FA1E0}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2119,16 +1997,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2136,16 +2014,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2153,16 +2031,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2170,16 +2048,16 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2187,16 +2065,16 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2204,16 +2082,16 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2221,16 +2099,16 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2238,16 +2116,16 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2255,16 +2133,16 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2272,16 +2150,16 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2289,16 +2167,16 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2306,16 +2184,16 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2323,16 +2201,16 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2340,16 +2218,16 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2357,16 +2235,16 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2374,16 +2252,16 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2391,16 +2269,16 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2408,16 +2286,16 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2425,16 +2303,16 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2442,16 +2320,16 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2459,16 +2337,16 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2476,16 +2354,16 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>79</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2493,16 +2371,16 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2510,16 +2388,16 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2527,16 +2405,16 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2544,16 +2422,16 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2561,16 +2439,16 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>84</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2578,16 +2456,16 @@
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2595,16 +2473,16 @@
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2612,16 +2490,16 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2629,16 +2507,16 @@
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>88</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2646,16 +2524,16 @@
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>89</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2663,16 +2541,16 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
         <v>90</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2680,16 +2558,16 @@
       <c r="A35">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>91</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2697,16 +2575,16 @@
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>92</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2714,16 +2592,16 @@
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>93</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2731,16 +2609,16 @@
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
         <v>94</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2748,16 +2626,16 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>95</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2765,16 +2643,16 @@
       <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>96</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2782,16 +2660,16 @@
       <c r="A41">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2799,16 +2677,16 @@
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
         <v>98</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2816,16 +2694,16 @@
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2833,16 +2711,16 @@
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
         <v>100</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2850,16 +2728,16 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>101</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2867,16 +2745,16 @@
       <c r="A46">
         <v>23</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
         <v>102</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2884,16 +2762,16 @@
       <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
         <v>103</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2901,16 +2779,16 @@
       <c r="A48">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>104</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2918,16 +2796,16 @@
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>105</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2935,16 +2813,16 @@
       <c r="A50">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2952,16 +2830,16 @@
       <c r="A51">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>107</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2978,7 +2856,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2987,7 +2865,7 @@
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3011,16 +2889,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3028,16 +2906,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3045,16 +2923,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3062,16 +2940,16 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3079,16 +2957,16 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3096,16 +2974,16 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3113,16 +2991,16 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3130,16 +3008,16 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3147,16 +3025,16 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3164,16 +3042,16 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3181,16 +3059,16 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3198,16 +3076,16 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3215,16 +3093,16 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3232,16 +3110,16 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3249,16 +3127,16 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3266,16 +3144,16 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3283,16 +3161,16 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3300,16 +3178,16 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3317,16 +3195,16 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3334,16 +3212,16 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3351,16 +3229,16 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3368,16 +3246,16 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3385,16 +3263,16 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3402,16 +3280,16 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3419,16 +3297,16 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3436,16 +3314,16 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3453,16 +3331,16 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3470,16 +3348,16 @@
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3487,16 +3365,16 @@
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3504,16 +3382,16 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3521,16 +3399,16 @@
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3538,16 +3416,16 @@
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3555,16 +3433,16 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3572,16 +3450,16 @@
       <c r="A35">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3589,16 +3467,16 @@
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3606,16 +3484,16 @@
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3623,16 +3501,16 @@
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3640,16 +3518,16 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3657,16 +3535,16 @@
       <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3674,16 +3552,16 @@
       <c r="A41">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3691,16 +3569,16 @@
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3708,16 +3586,16 @@
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3725,16 +3603,16 @@
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3742,16 +3620,16 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3759,16 +3637,16 @@
       <c r="A46">
         <v>23</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3776,16 +3654,16 @@
       <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3793,16 +3671,16 @@
       <c r="A48">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3810,16 +3688,16 @@
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3827,16 +3705,16 @@
       <c r="A50">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3844,16 +3722,16 @@
       <c r="A51">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3861,16 +3739,16 @@
       <c r="A52">
         <v>26</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3878,16 +3756,16 @@
       <c r="A53">
         <v>26</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3895,16 +3773,16 @@
       <c r="A54">
         <v>27</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3912,16 +3790,16 @@
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3929,16 +3807,16 @@
       <c r="A56">
         <v>28</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3946,16 +3824,16 @@
       <c r="A57">
         <v>28</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3963,16 +3841,16 @@
       <c r="A58">
         <v>29</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3980,16 +3858,16 @@
       <c r="A59">
         <v>29</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3998,20 +3876,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171FC771-8A91-9A48-B904-2060603711EF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A158"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
